--- a/CLC-Milestones/Milestone 1/Milestone 1 SBD RCoon.xlsx
+++ b/CLC-Milestones/Milestone 1/Milestone 1 SBD RCoon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candice.Johnson\Grand Canyon Education\XRM Document Management - Course\CST-350\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddadd9b5ea9c95e0/Documents/GitHub/CST-350/CLC-Milestones/Milestone 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{40C78078-2618-034E-866B-1DC5F18A3F18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{86EE8C40-0C3C-4A66-9D6D-3DB5A6EBA938}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{40C78078-2618-034E-866B-1DC5F18A3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419FC694-FAAB-432A-9177-8D9EE1AB49B8}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-2070" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Project:</t>
   </si>
@@ -94,45 +94,15 @@
     <t>Day 10</t>
   </si>
   <si>
-    <t>As a user, I would like to be able to register and log into the app so that I can play the game.</t>
-  </si>
-  <si>
     <t>build controller</t>
   </si>
   <si>
-    <t>shad</t>
-  </si>
-  <si>
     <t>build model</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>build views</t>
-  </si>
-  <si>
-    <t>build database</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>As a(n) &lt;actor&gt; I would like to &lt;description&gt;</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
     <t>Team Member</t>
   </si>
   <si>
-    <t>Task 6</t>
-  </si>
-  <si>
-    <t>Task 7</t>
-  </si>
-  <si>
     <t>Task 8</t>
   </si>
   <si>
@@ -251,6 +221,45 @@
   </si>
   <si>
     <t>After each Daily Standup each Team Member should review the Burn Down Chart to ensure your Sprint will be delivered on time</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to fill out a registration form with my First Name, Last Name, Sex, Age, State, Email, Username, and Password.</t>
+  </si>
+  <si>
+    <t>As a user, I want the registration form to perform server-side form validation to ensure my information is correct.</t>
+  </si>
+  <si>
+    <t>As a user, I want my information to be saved in a SQL Server relational database when I submit the registration form</t>
+  </si>
+  <si>
+    <t>As a user, I want to be forwarded to a success or error page after submitting the registration form.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to fill out a login form with my Username and Password.</t>
+  </si>
+  <si>
+    <t>As a user, I want the login form to use the SQL Server database for authentication.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be forwarded to a success or error page after submitting the login form.</t>
+  </si>
+  <si>
+    <t>Build database</t>
+  </si>
+  <si>
+    <t>Add Views</t>
+  </si>
+  <si>
+    <t>Add more views</t>
+  </si>
+  <si>
+    <t>Add Security Model</t>
+  </si>
+  <si>
+    <t>Connect Security Model to login Controller</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,10 +465,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -464,11 +479,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,14 +496,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -506,22 +520,22 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -532,6 +546,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -539,18 +562,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -641,37 +656,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2999999999999989</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3999999999999986</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999982</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5999999999999983</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6999999999999984</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7999999999999985</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999847</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>-1.5543122344752192E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,34 +732,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -863,6 +878,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A2" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,10 +1163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8"/>
@@ -1157,10 +1176,10 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
@@ -1175,122 +1194,98 @@
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36">
-        <v>44105</v>
-      </c>
-      <c r="H3" s="36">
-        <v>44106</v>
-      </c>
-      <c r="I3" s="36">
-        <v>44107</v>
-      </c>
-      <c r="J3" s="36">
-        <v>44108</v>
-      </c>
-      <c r="K3" s="36">
-        <v>44109</v>
-      </c>
-      <c r="L3" s="36">
-        <v>44110</v>
-      </c>
-      <c r="M3" s="36">
-        <v>44111</v>
-      </c>
-      <c r="N3" s="36">
-        <v>44112</v>
-      </c>
-      <c r="O3" s="36">
-        <v>44113</v>
-      </c>
-      <c r="P3" s="36">
-        <v>44114</v>
-      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="28">
+        <v>61</v>
+      </c>
+      <c r="F5" s="27">
         <v>2</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.5</v>
-      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="12">
+        <v>2</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -1300,56 +1295,54 @@
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="28">
-        <v>2</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30">
+        <v>19</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="N6" s="30">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29">
         <v>1</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="28">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12">
         <v>1</v>
       </c>
@@ -1361,191 +1354,137 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="28">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29">
         <v>1</v>
       </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="27">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="28">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P11" s="10"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="28">
+        <v>21</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="27">
         <v>0</v>
       </c>
       <c r="G12" s="10">
@@ -1581,21 +1520,17 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="28">
+        <v>22</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
       <c r="G13" s="10">
@@ -1631,21 +1566,17 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="28">
+        <v>23</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="27">
         <v>0</v>
       </c>
       <c r="G14" s="10">
@@ -1683,108 +1614,108 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="24">
+      <c r="B15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="23">
         <f>SUM(F5:F14)</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="23">
+        <f>F15-$F$15/10</f>
         <v>9</v>
       </c>
-      <c r="G15" s="24">
-        <f>F15-$F$15/10</f>
-        <v>8.1</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f t="shared" ref="H15:P15" si="0">G15-$F$15/10</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="I15" s="24">
+        <v>8</v>
+      </c>
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
-        <v>6.2999999999999989</v>
-      </c>
-      <c r="J15" s="24">
+        <v>7</v>
+      </c>
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="K15" s="24">
+        <v>6</v>
+      </c>
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
-        <v>4.4999999999999982</v>
-      </c>
-      <c r="L15" s="24">
+        <v>5</v>
+      </c>
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
-        <v>3.5999999999999983</v>
-      </c>
-      <c r="M15" s="24">
+        <v>4</v>
+      </c>
+      <c r="M15" s="23">
         <f t="shared" si="0"/>
-        <v>2.6999999999999984</v>
-      </c>
-      <c r="N15" s="24">
+        <v>3</v>
+      </c>
+      <c r="N15" s="23">
         <f t="shared" si="0"/>
-        <v>1.7999999999999985</v>
-      </c>
-      <c r="O15" s="24">
+        <v>2</v>
+      </c>
+      <c r="O15" s="23">
         <f t="shared" si="0"/>
-        <v>0.89999999999999847</v>
-      </c>
-      <c r="P15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="24">
         <f t="shared" si="0"/>
-        <v>-1.5543122344752192E-15</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="24">
+      <c r="B16" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="23">
         <f>SUM(F5:F14)</f>
-        <v>9</v>
-      </c>
-      <c r="G16" s="24">
+        <v>10</v>
+      </c>
+      <c r="G16" s="23">
         <f t="shared" ref="G16:P16" si="1">F16 - SUM(G5:G14)</f>
-        <v>9</v>
-      </c>
-      <c r="H16" s="24">
+        <v>10</v>
+      </c>
+      <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I16" s="24">
+        <v>10</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="J16" s="24">
+        <v>10</v>
+      </c>
+      <c r="J16" s="23">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K16" s="24">
+        <v>10</v>
+      </c>
+      <c r="K16" s="23">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L16" s="24">
+        <v>10</v>
+      </c>
+      <c r="L16" s="23">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M16" s="24">
+        <v>10</v>
+      </c>
+      <c r="M16" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N16" s="24">
+        <v>7</v>
+      </c>
+      <c r="N16" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="24">
+        <v>2</v>
+      </c>
+      <c r="O16" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2266,30 +2197,30 @@
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="14"/>
       <c r="G1" s="15"/>
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -2302,348 +2233,348 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="22">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="22">
+        <v>12</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="23">
-        <v>8</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="23">
-        <v>12</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="21"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2662,146 +2593,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="40" customWidth="1"/>
     <col min="2" max="2" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="7"/>
     </row>
   </sheetData>
@@ -3105,7 +3036,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B6512B-855F-40C0-89A6-E9ABCD32FB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B6512B-855F-40C0-89A6-E9ABCD32FB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
+    <ds:schemaRef ds:uri="37d47695-dda2-48a2-87bc-2a1f7ac7fedc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3114,6 +3061,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
+    <ds:schemaRef ds:uri="37d47695-dda2-48a2-87bc-2a1f7ac7fedc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>